--- a/topics.xlsx
+++ b/topics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="67">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -766,7 +766,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27:I29"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1629,8 +1629,8 @@
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="I27" t="s">
-        <v>59</v>
+      <c r="I27">
+        <v>3</v>
       </c>
       <c r="J27" t="s">
         <v>59</v>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$2</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="83">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -147,6 +150,9 @@
     <t>Week 12</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>Converting Bases</t>
   </si>
   <si>
@@ -220,6 +226,51 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>n (adding, removing, search), 1 (is_empty)</t>
+  </si>
+  <si>
+    <t>Limited in functionality; order vs. unordered must be dealt w/ differently</t>
+  </si>
+  <si>
+    <t>|v| + |e| (# of vertices + # of edges)</t>
+  </si>
+  <si>
+    <t>|v| (# of vertices)</t>
+  </si>
+  <si>
+    <t>log(n)</t>
+  </si>
+  <si>
+    <t>Searching a list, must be ordered</t>
+  </si>
+  <si>
+    <t>1 (?)</t>
+  </si>
+  <si>
+    <t>http://bigocheatsheet.com/</t>
+  </si>
+  <si>
+    <t>Graph, Tree</t>
+  </si>
+  <si>
+    <t>Ordered List/Sorted Array</t>
+  </si>
+  <si>
+    <t>Rules of recursion; Python recursion limits</t>
+  </si>
+  <si>
+    <t>Associated</t>
+  </si>
+  <si>
+    <t>Tower of Hanoi, Fibonacci, Convert Base, Merge Sort</t>
+  </si>
+  <si>
+    <t>Can be made recursive easily; make sure to account for digits if over 10</t>
+  </si>
+  <si>
+    <t>Big-O</t>
   </si>
 </sst>
 </file>
@@ -268,7 +319,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -348,11 +399,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="83"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="94">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -392,6 +459,18 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -431,6 +510,9 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -760,54 +842,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -815,1195 +901,1244 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9">
+        <v>54</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
+      <c r="E14">
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
+      <c r="E15">
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>66</v>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>66</v>
+      <c r="E17">
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>66</v>
+      <c r="E18">
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>64</v>
+      </c>
+      <c r="O18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>64</v>
+      </c>
+      <c r="O19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
-        <v>66</v>
+      <c r="E20">
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>64</v>
+      </c>
+      <c r="O20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
+        <v>46</v>
+      </c>
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>66</v>
+      <c r="E21">
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>64</v>
+      </c>
+      <c r="O21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>64</v>
+      </c>
+      <c r="O22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>60</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="I24" t="s">
-        <v>66</v>
+      <c r="E24">
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>60</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>60</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26">
+        <v>52</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>66</v>
+      <c r="E26">
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>60</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27" t="s">
-        <v>59</v>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>60</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="I28" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" t="s">
-        <v>61</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>62</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="I29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29" t="s">
-        <v>61</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>62</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="I30" t="s">
-        <v>59</v>
-      </c>
-      <c r="J30" t="s">
-        <v>61</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>62</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
+        <v>82</v>
+      </c>
+      <c r="D31">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="I31" t="s">
-        <v>59</v>
+      <c r="E31">
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>62</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" t="s">
-        <v>61</v>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>62</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
+        <v>44</v>
+      </c>
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="I33" t="s">
-        <v>59</v>
+      <c r="E33">
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>62</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>63</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="I34" t="s">
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>62</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>63</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35">
+        <v>56</v>
+      </c>
+      <c r="D35">
         <v>5</v>
       </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
-        <v>61</v>
+      <c r="E35">
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>63</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>5</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>4</v>
       </c>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
       <c r="J36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>63</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>5</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>4</v>
       </c>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
       <c r="J37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>63</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>4</v>
       </c>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N38" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D38">
-    <sortCondition ref="D2"/>
+  <autoFilter ref="A2:O2"/>
+  <sortState ref="A3:E38">
+    <sortCondition ref="E2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="86">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>Big-O</t>
+  </si>
+  <si>
+    <t>Must keep the order; remember to include all methods (index, search, size, etc.)</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>Extremely slow, worst of the sorts, but fine for almost-sorted lists; easiest implementation for small lists too</t>
   </si>
 </sst>
 </file>
@@ -848,7 +857,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1882,8 +1891,8 @@
       <c r="E31">
         <v>3</v>
       </c>
-      <c r="J31" t="s">
-        <v>62</v>
+      <c r="J31">
+        <v>4</v>
       </c>
       <c r="K31" t="s">
         <v>62</v>
@@ -1952,8 +1961,11 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="J33" t="s">
-        <v>62</v>
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
       </c>
       <c r="K33" t="s">
         <v>63</v>
@@ -1984,8 +1996,17 @@
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="J34" t="s">
-        <v>62</v>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
       </c>
       <c r="K34" t="s">
         <v>63</v>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="93">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -36,6 +36,9 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>Linked List</t>
+  </si>
+  <si>
     <t>Binary Trees</t>
   </si>
   <si>
@@ -280,6 +283,24 @@
   </si>
   <si>
     <t>Extremely slow, worst of the sorts, but fine for almost-sorted lists; easiest implementation for small lists too</t>
+  </si>
+  <si>
+    <t>O(|V| + |E|) (adjacency list); O(|V^2) (adjacency matrix)</t>
+  </si>
+  <si>
+    <t>O(1) (add V or E); O(|E|) (remove V or E); O(|V|) (adjacent?) - all for adjacency list</t>
+  </si>
+  <si>
+    <t>List- must find all vertices/edges when removing respective one</t>
+  </si>
+  <si>
+    <t>BFS, DFS, Dijsktra's</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(1) (add/remove)</t>
   </si>
 </sst>
 </file>
@@ -857,7 +878,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -878,72 +899,72 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -951,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -960,22 +981,22 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -983,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -992,22 +1013,22 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1015,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1024,22 +1045,22 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1047,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1056,22 +1077,22 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1079,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1088,22 +1109,22 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1111,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1120,22 +1141,22 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1143,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1152,22 +1173,22 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1175,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1184,22 +1205,22 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1207,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1216,22 +1237,22 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1239,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1248,22 +1269,22 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1271,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1280,22 +1301,22 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1303,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1312,22 +1333,22 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1335,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1344,22 +1365,22 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1367,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1376,22 +1397,22 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1399,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1408,22 +1429,22 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1431,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1440,22 +1461,22 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1463,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1472,22 +1493,22 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1495,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1504,22 +1525,22 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1527,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1536,22 +1557,22 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1559,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1568,22 +1589,22 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1591,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1600,22 +1621,22 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1623,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1632,22 +1653,22 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1655,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1664,22 +1685,22 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1687,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1696,22 +1717,22 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1719,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1728,31 +1749,31 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1760,10 +1781,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1772,28 +1793,28 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
         <v>71</v>
       </c>
-      <c r="G28" t="s">
-        <v>70</v>
-      </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1801,10 +1822,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -1813,31 +1834,31 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
         <v>74</v>
       </c>
-      <c r="G29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s">
-        <v>73</v>
-      </c>
       <c r="J29">
         <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1845,10 +1866,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -1857,25 +1878,25 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1883,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1895,19 +1916,19 @@
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1915,10 +1936,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1927,25 +1948,25 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32">
         <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1953,7 +1974,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -1962,25 +1986,25 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33">
         <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1988,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2000,28 +2024,28 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J34">
         <v>4</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2029,7 +2053,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -2037,23 +2064,32 @@
       <c r="E35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>63</v>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2061,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -2069,23 +2105,29 @@
       <c r="E36">
         <v>4</v>
       </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
       <c r="J36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2093,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -2102,22 +2144,22 @@
         <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2125,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -2134,22 +2176,22 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -300,7 +300,7 @@
     <t>O(n)</t>
   </si>
   <si>
-    <t>O(1) (add/remove)</t>
+    <t>O(1) (add/remove/peek/is_empty); O(n) (size)</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="97">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Queues</t>
   </si>
   <si>
-    <t>Vectors/ArrayLists</t>
-  </si>
-  <si>
     <t>Hash Tables</t>
   </si>
   <si>
@@ -301,6 +298,21 @@
   </si>
   <si>
     <t>O(1) (add/remove/peek/is_empty); O(n) (size)</t>
+  </si>
+  <si>
+    <t>BFS, DFS</t>
+  </si>
+  <si>
+    <t>O(1) (enqueue/is_empty); O(n) (size, dequeue)</t>
+  </si>
+  <si>
+    <t>O(nlog(n))</t>
+  </si>
+  <si>
+    <t>Recursion, divide &amp; conquer</t>
+  </si>
+  <si>
+    <t>Unfinished - come back</t>
   </si>
 </sst>
 </file>
@@ -349,7 +361,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -434,6 +446,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="83"/>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="96">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -501,6 +515,8 @@
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -872,13 +888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -899,72 +915,72 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -981,54 +997,54 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1045,22 +1061,22 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1071,60 +1087,60 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1135,28 +1151,28 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1173,54 +1189,54 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1231,28 +1247,28 @@
         <v>58</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1263,13 +1279,13 @@
         <v>59</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s">
         <v>66</v>
@@ -1289,34 +1305,34 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1324,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1333,30 +1349,30 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1365,22 +1381,22 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1388,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1397,22 +1413,22 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1423,92 +1439,92 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1519,28 +1535,28 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1548,31 +1564,31 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1589,22 +1605,22 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1615,28 +1631,28 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1647,60 +1663,60 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1708,39 +1724,51 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
         <v>68</v>
       </c>
+      <c r="H26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
       <c r="K26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1749,31 +1777,28 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" t="s">
         <v>70</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1781,84 +1806,81 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
         <v>72</v>
       </c>
-      <c r="G28" t="s">
-        <v>71</v>
+      <c r="H28" t="s">
+        <v>73</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
         <v>78</v>
       </c>
-      <c r="D29">
+      <c r="J29">
         <v>4</v>
       </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
       <c r="K29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1866,10 +1888,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -1877,78 +1896,81 @@
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="H30" t="s">
-        <v>79</v>
-      </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
       </c>
       <c r="J31">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32">
         <v>4</v>
@@ -1971,81 +1993,87 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
+      <c r="G33" t="s">
+        <v>84</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J33">
         <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>86</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2053,43 +2081,37 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2097,7 +2119,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -2106,36 +2131,36 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
       </c>
       <c r="K36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -2143,55 +2168,32 @@
       <c r="E37">
         <v>4</v>
       </c>
-      <c r="J37" t="s">
-        <v>64</v>
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="J38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K38" t="s">
-        <v>64</v>
-      </c>
-      <c r="L38" t="s">
-        <v>64</v>
-      </c>
-      <c r="M38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N38" t="s">
-        <v>64</v>
-      </c>
-      <c r="O38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$37</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="100">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Factory Design Pattern</t>
   </si>
   <si>
-    <t>Memory (Stack vs. Heap)</t>
-  </si>
-  <si>
     <t>Recursion</t>
   </si>
   <si>
@@ -312,7 +309,19 @@
     <t>Recursion, divide &amp; conquer</t>
   </si>
   <si>
-    <t>Unfinished - come back</t>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>O(log(n)) (lookup, insertion, deletion - average and worst)</t>
+  </si>
+  <si>
+    <t>Red-black Tree</t>
+  </si>
+  <si>
+    <t>O(n) (lookup, insertion, deletion - when the tree is unbalanced)</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/AVL_tree; http://interactivepython.org/courselib/static/pythonds/Trees/AVLTreePerformance.html; http://interactivepython.org/courselib/static/pythonds/Trees/AVLTreeImplementation.html</t>
   </si>
 </sst>
 </file>
@@ -361,7 +370,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="96">
+  <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,6 +455,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -463,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="83"/>
   </cellXfs>
-  <cellStyles count="96">
+  <cellStyles count="124">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -517,6 +554,34 @@
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -888,13 +953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -910,80 +975,83 @@
     <col min="10" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -997,25 +1065,28 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>60</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1028,26 +1099,35 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1060,543 +1140,642 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
       <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>60</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
+      <c r="C14" t="s">
+        <v>88</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
         <v>67</v>
       </c>
-      <c r="K14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19">
         <v>4</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" t="s">
-        <v>64</v>
-      </c>
-      <c r="O19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>63</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1605,604 +1784,624 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>67</v>
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>67</v>
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>61</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>61</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>61</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>61</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J31">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>61</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
         <v>4</v>
       </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J32">
         <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>61</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>62</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" t="s">
-        <v>88</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>62</v>
+      </c>
+      <c r="P34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" t="s">
+        <v>62</v>
+      </c>
+      <c r="N35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35" t="s">
-        <v>63</v>
-      </c>
-      <c r="L35" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" t="s">
-        <v>63</v>
-      </c>
-      <c r="N35" t="s">
-        <v>63</v>
-      </c>
-      <c r="O35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
       <c r="E36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>72</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>62</v>
+      </c>
+      <c r="P36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="J37">
         <v>4</v>
       </c>
       <c r="K37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="P37">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2"/>
+  <autoFilter ref="A2:P37">
+    <sortState ref="A3:P37">
+      <sortCondition ref="P2:P37"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A3:E38">
     <sortCondition ref="E2"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1"/>
+    <hyperlink ref="Q6" r:id="rId2" display="http://en.wikipedia.org/wiki/AVL_tree"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="101">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>http://en.wikipedia.org/wiki/AVL_tree; http://interactivepython.org/courselib/static/pythonds/Trees/AVLTreePerformance.html; http://interactivepython.org/courselib/static/pythonds/Trees/AVLTreeImplementation.html</t>
+  </si>
+  <si>
+    <t>Implement graph by determining all legal moves for a knight; use DFS to make the tour</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1187,8 +1190,8 @@
       <c r="J6" t="s">
         <v>66</v>
       </c>
-      <c r="K6" t="s">
-        <v>64</v>
+      <c r="K6">
+        <v>2</v>
       </c>
       <c r="L6" t="s">
         <v>64</v>
@@ -1222,11 +1225,14 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
       <c r="J7" t="s">
         <v>66</v>
       </c>
-      <c r="K7" t="s">
-        <v>64</v>
+      <c r="K7">
+        <v>2</v>
       </c>
       <c r="L7" t="s">
         <v>64</v>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="101">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -962,7 +962,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1266,8 +1266,8 @@
       <c r="J8" t="s">
         <v>66</v>
       </c>
-      <c r="K8" t="s">
-        <v>64</v>
+      <c r="K8">
+        <v>3</v>
       </c>
       <c r="L8" t="s">
         <v>64</v>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="101">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -962,7 +962,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1447,8 +1447,8 @@
       <c r="J13">
         <v>4</v>
       </c>
-      <c r="K13" t="s">
-        <v>65</v>
+      <c r="K13">
+        <v>3</v>
       </c>
       <c r="L13" t="s">
         <v>65</v>
@@ -1494,8 +1494,8 @@
       <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" t="s">
-        <v>65</v>
+      <c r="K14">
+        <v>3</v>
       </c>
       <c r="L14" t="s">
         <v>65</v>
@@ -1681,8 +1681,8 @@
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19" t="s">
-        <v>63</v>
+      <c r="K19">
+        <v>4</v>
       </c>
       <c r="L19" t="s">
         <v>63</v>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="101">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -962,7 +962,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1371,8 +1371,8 @@
       <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" t="s">
-        <v>65</v>
+      <c r="K11">
+        <v>2</v>
       </c>
       <c r="L11" t="s">
         <v>65</v>
@@ -1915,8 +1915,8 @@
       <c r="J25">
         <v>3</v>
       </c>
-      <c r="K25" t="s">
-        <v>59</v>
+      <c r="K25">
+        <v>3</v>
       </c>
       <c r="L25" t="s">
         <v>59</v>
@@ -2029,8 +2029,8 @@
       <c r="J28" t="s">
         <v>66</v>
       </c>
-      <c r="K28" t="s">
-        <v>61</v>
+      <c r="K28">
+        <v>2</v>
       </c>
       <c r="L28" t="s">
         <v>61</v>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="102">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Implement graph by determining all legal moves for a knight; use DFS to make the tour</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -458,6 +461,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -503,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="83"/>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -585,6 +591,9 @@
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -956,13 +965,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1529,8 +1538,8 @@
       <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="K15" t="s">
-        <v>63</v>
+      <c r="K15">
+        <v>2</v>
       </c>
       <c r="L15" t="s">
         <v>63</v>
@@ -1599,8 +1608,8 @@
       <c r="J17" t="s">
         <v>66</v>
       </c>
-      <c r="K17" t="s">
-        <v>63</v>
+      <c r="K17">
+        <v>3</v>
       </c>
       <c r="L17" t="s">
         <v>63</v>
@@ -1637,8 +1646,8 @@
       <c r="J18" t="s">
         <v>66</v>
       </c>
-      <c r="K18" t="s">
-        <v>63</v>
+      <c r="K18">
+        <v>3</v>
       </c>
       <c r="L18" t="s">
         <v>63</v>
@@ -1722,8 +1731,8 @@
       <c r="J20">
         <v>4</v>
       </c>
-      <c r="K20" t="s">
-        <v>63</v>
+      <c r="K20">
+        <v>4</v>
       </c>
       <c r="L20" t="s">
         <v>63</v>
@@ -1757,8 +1766,8 @@
       <c r="J21" t="s">
         <v>66</v>
       </c>
-      <c r="K21" t="s">
-        <v>59</v>
+      <c r="K21">
+        <v>2</v>
       </c>
       <c r="L21" t="s">
         <v>59</v>
@@ -1827,8 +1836,8 @@
       <c r="J23" t="s">
         <v>66</v>
       </c>
-      <c r="K23" t="s">
-        <v>59</v>
+      <c r="K23">
+        <v>3</v>
       </c>
       <c r="L23" t="s">
         <v>59</v>
@@ -1871,8 +1880,8 @@
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24" t="s">
-        <v>59</v>
+      <c r="K24">
+        <v>4</v>
       </c>
       <c r="L24" t="s">
         <v>59</v>
@@ -1959,8 +1968,8 @@
       <c r="J26">
         <v>4</v>
       </c>
-      <c r="K26" t="s">
-        <v>59</v>
+      <c r="K26">
+        <v>4</v>
       </c>
       <c r="L26" t="s">
         <v>59</v>
@@ -2064,8 +2073,8 @@
       <c r="J29" t="s">
         <v>66</v>
       </c>
-      <c r="K29" t="s">
-        <v>61</v>
+      <c r="K29">
+        <v>3</v>
       </c>
       <c r="L29" t="s">
         <v>61</v>
@@ -2393,6 +2402,29 @@
         <v>62</v>
       </c>
       <c r="P37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" t="s">
+        <v>62</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38">
         <v>7</v>
       </c>
     </row>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="102">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -971,7 +971,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2114,8 +2114,8 @@
       <c r="J30">
         <v>4</v>
       </c>
-      <c r="K30" t="s">
-        <v>61</v>
+      <c r="K30">
+        <v>3</v>
       </c>
       <c r="L30" t="s">
         <v>61</v>
@@ -2155,8 +2155,8 @@
       <c r="J31">
         <v>4</v>
       </c>
-      <c r="K31" t="s">
-        <v>61</v>
+      <c r="K31">
+        <v>4</v>
       </c>
       <c r="L31" t="s">
         <v>61</v>
@@ -2199,8 +2199,8 @@
       <c r="J32">
         <v>4</v>
       </c>
-      <c r="K32" t="s">
-        <v>61</v>
+      <c r="K32">
+        <v>4</v>
       </c>
       <c r="L32" t="s">
         <v>61</v>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="103">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>Suffix Tree</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,6 +464,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="83"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -594,6 +601,10 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -965,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1311,7 +1322,7 @@
         <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
         <v>65</v>
@@ -1346,7 +1357,7 @@
         <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
         <v>65</v>
@@ -1416,7 +1427,7 @@
         <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s">
         <v>65</v>
@@ -1574,7 +1585,7 @@
         <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
         <v>63</v>
@@ -1802,7 +1813,7 @@
         <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s">
         <v>59</v>
@@ -2004,7 +2015,7 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
         <v>61</v>
@@ -2235,7 +2246,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s">
         <v>62</v>
@@ -2270,7 +2281,7 @@
         <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L34" t="s">
         <v>62</v>
@@ -2304,8 +2315,8 @@
       <c r="J35" t="s">
         <v>66</v>
       </c>
-      <c r="K35" t="s">
-        <v>62</v>
+      <c r="K35">
+        <v>2</v>
       </c>
       <c r="L35" t="s">
         <v>62</v>
@@ -2351,8 +2362,8 @@
       <c r="J36">
         <v>3</v>
       </c>
-      <c r="K36" t="s">
-        <v>62</v>
+      <c r="K36">
+        <v>3</v>
       </c>
       <c r="L36" t="s">
         <v>62</v>
@@ -2386,8 +2397,8 @@
       <c r="J37">
         <v>4</v>
       </c>
-      <c r="K37" t="s">
-        <v>62</v>
+      <c r="K37">
+        <v>4</v>
       </c>
       <c r="L37" t="s">
         <v>62</v>
@@ -2412,6 +2423,9 @@
       <c r="B38" t="s">
         <v>101</v>
       </c>
+      <c r="K38" t="s">
+        <v>66</v>
+      </c>
       <c r="L38" t="s">
         <v>62</v>
       </c>
@@ -2426,6 +2440,29 @@
       </c>
       <c r="P38">
         <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" t="s">
+        <v>62</v>
+      </c>
+      <c r="N39" t="s">
+        <v>62</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -982,7 +982,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="103">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -982,7 +982,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1289,8 +1289,8 @@
       <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
-        <v>64</v>
+      <c r="L8">
+        <v>4</v>
       </c>
       <c r="M8" t="s">
         <v>64</v>
@@ -1429,8 +1429,8 @@
       <c r="K12" t="s">
         <v>66</v>
       </c>
-      <c r="L12" t="s">
-        <v>65</v>
+      <c r="L12">
+        <v>3</v>
       </c>
       <c r="M12" t="s">
         <v>65</v>
@@ -1622,8 +1622,8 @@
       <c r="K17">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
-        <v>63</v>
+      <c r="L17">
+        <v>4</v>
       </c>
       <c r="M17" t="s">
         <v>63</v>
@@ -1660,8 +1660,8 @@
       <c r="K18">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
-        <v>63</v>
+      <c r="L18">
+        <v>3</v>
       </c>
       <c r="M18" t="s">
         <v>63</v>
@@ -1745,8 +1745,8 @@
       <c r="K20">
         <v>4</v>
       </c>
-      <c r="L20" t="s">
-        <v>63</v>
+      <c r="L20">
+        <v>4</v>
       </c>
       <c r="M20" t="s">
         <v>63</v>
@@ -1850,8 +1850,8 @@
       <c r="K23">
         <v>3</v>
       </c>
-      <c r="L23" t="s">
-        <v>59</v>
+      <c r="L23">
+        <v>4</v>
       </c>
       <c r="M23" t="s">
         <v>59</v>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="106">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>Suffix Tree</t>
+  </si>
+  <si>
+    <t>O(nk) where k is the length of the longest number</t>
+  </si>
+  <si>
+    <t>Can only use with integers</t>
+  </si>
+  <si>
+    <t>O(k + n)</t>
   </si>
 </sst>
 </file>
@@ -379,7 +388,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -464,6 +473,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -516,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="83"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="132">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -605,6 +615,7 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -982,7 +993,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1094,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
         <v>60</v>
@@ -1135,10 +1146,10 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>60</v>
@@ -1176,10 +1187,10 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
       </c>
       <c r="N5" t="s">
         <v>60</v>
@@ -1214,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
         <v>64</v>
@@ -1255,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -1325,7 +1336,7 @@
         <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
         <v>65</v>
@@ -1360,7 +1371,7 @@
         <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
         <v>65</v>
@@ -1395,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
         <v>65</v>
@@ -1471,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
         <v>65</v>
@@ -1518,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
         <v>65</v>
@@ -1553,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
         <v>63</v>
@@ -1588,7 +1599,7 @@
         <v>66</v>
       </c>
       <c r="L16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M16" t="s">
         <v>63</v>
@@ -1705,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M19" t="s">
         <v>63</v>
@@ -1781,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M21" t="s">
         <v>59</v>
@@ -1816,7 +1827,7 @@
         <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M22" t="s">
         <v>59</v>
@@ -1895,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M24" t="s">
         <v>59</v>
@@ -1939,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M25" t="s">
         <v>59</v>
@@ -1983,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M26" t="s">
         <v>59</v>
@@ -2018,7 +2029,7 @@
         <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M27" t="s">
         <v>61</v>
@@ -2053,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M28" t="s">
         <v>61</v>
@@ -2088,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M29" t="s">
         <v>61</v>
@@ -2129,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M30" t="s">
         <v>61</v>
@@ -2170,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M31" t="s">
         <v>61</v>
@@ -2214,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M32" t="s">
         <v>61</v>
@@ -2249,7 +2260,7 @@
         <v>66</v>
       </c>
       <c r="L33" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M33" t="s">
         <v>62</v>
@@ -2277,6 +2288,15 @@
       <c r="E34">
         <v>2</v>
       </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" t="s">
+        <v>104</v>
+      </c>
       <c r="J34" t="s">
         <v>66</v>
       </c>
@@ -2284,7 +2304,7 @@
         <v>66</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M34" t="s">
         <v>62</v>
@@ -2319,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M35" t="s">
         <v>62</v>
@@ -2366,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M36" t="s">
         <v>62</v>
@@ -2401,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="L37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M37" t="s">
         <v>62</v>
@@ -2427,7 +2447,7 @@
         <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M38" t="s">
         <v>62</v>
@@ -2453,7 +2473,7 @@
         <v>66</v>
       </c>
       <c r="L39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M39" t="s">
         <v>62</v>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="107">
   <si>
     <t>Interview Prep</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>O(k + n)</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
   </si>
 </sst>
 </file>
@@ -987,13 +990,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1110,8 +1113,8 @@
       <c r="M3" t="s">
         <v>60</v>
       </c>
-      <c r="N3" t="s">
-        <v>60</v>
+      <c r="N3">
+        <v>3</v>
       </c>
       <c r="O3" t="s">
         <v>60</v>
@@ -2443,6 +2446,12 @@
       <c r="B38" t="s">
         <v>101</v>
       </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
       <c r="K38" t="s">
         <v>66</v>
       </c>
@@ -2469,6 +2478,12 @@
       <c r="B39" t="s">
         <v>102</v>
       </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
       <c r="K39" t="s">
         <v>66</v>
       </c>
@@ -2483,6 +2498,23 @@
       </c>
       <c r="O39" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
